--- a/1试件设计与加工/0试验设计/201801第一批/3宝钢焊接/钢板重量核算.xlsx
+++ b/1试件设计与加工/0试验设计/201801第一批/3宝钢焊接/钢板重量核算.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\1试件设计\201801第一批\3宝钢焊接\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\1试件设计与加工\0试验设计\201801第一批\3宝钢焊接\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444BD0B-2D29-4AEB-B284-7C1F70C48DFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="17310" yWindow="2355" windowWidth="28005" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>长mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,14 +72,34 @@
   </si>
   <si>
     <t>7.9*1000kg/m3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,11 +159,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,31 +478,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
         <v>201801</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -507,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>90</v>
       </c>
@@ -538,7 +565,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>75</v>
       </c>
@@ -569,7 +596,7 @@
         <v>4.045E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60</v>
       </c>
@@ -600,7 +627,7 @@
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>45</v>
       </c>
@@ -631,7 +658,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45</v>
       </c>
@@ -662,7 +689,7 @@
         <v>4.5300000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -693,7 +720,7 @@
         <v>4.6319999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -724,7 +751,7 @@
         <v>4.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -755,7 +782,7 @@
         <v>3.8430000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +795,7 @@
         <v>3.3876999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -780,7 +807,7 @@
         <v>267.62829999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -788,24 +815,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>201812</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -831,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>90</v>
       </c>
@@ -862,7 +889,7 @@
         <v>5.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>75</v>
       </c>
@@ -893,7 +920,7 @@
         <v>8.09E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>60</v>
       </c>
@@ -924,7 +951,7 @@
         <v>8.2500000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -955,7 +982,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>45</v>
       </c>
@@ -986,7 +1013,7 @@
         <v>9.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>9.2639999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -1048,7 +1075,7 @@
         <v>9.2040000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1079,7 +1106,7 @@
         <v>7.6860000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1119,7 @@
         <v>6.6313999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1104,12 +1131,177 @@
         <v>523.88060000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20190307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>400</v>
+      </c>
+      <c r="C41">
+        <v>275</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <f>B41*C41*D41*E41</f>
+        <v>13200000</v>
+      </c>
+      <c r="G41">
+        <f>F41/1000000000</f>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>400</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F45" si="4">B42*C42*D42*E42</f>
+        <v>2400000</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G45" si="5">F42/1000000000</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>700</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>22400000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>750</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>3600000</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>600</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>9600000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f>SUM(G41:G45)</f>
+        <v>5.1199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f>G46*7.9*1000</f>
+        <v>404.48</v>
       </c>
     </row>
   </sheetData>
@@ -1121,5 +1313,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>